--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Desktop\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903490D-79FC-41BB-B661-011394DD63EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75D10EF-3DE2-4D83-AAE3-9EBA27C36D9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="14016" xr2:uid="{DFA722B3-4D2A-4C35-9A86-3FE48670EFE8}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="18000" windowHeight="12735" xr2:uid="{DFA722B3-4D2A-4C35-9A86-3FE48670EFE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>Category</t>
   </si>
@@ -67,12 +67,90 @@
   </si>
   <si>
     <t>Leetcode-942 DI String Match</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>Leetcode-970 Powerful Integers</t>
+  </si>
+  <si>
+    <t>55 mins</t>
+  </si>
+  <si>
+    <t>Leetcode-798 Smallest Rotation with Highest Score</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Leetcode-791 Custom Sort String</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Leetcode-1031 Maximum Sum of Two Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>Leetcode-754 Reach a Number</t>
+  </si>
+  <si>
+    <t>50 mins</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Leetcode-462 Minimum Moves to Equal Array Elements II</t>
+  </si>
+  <si>
+    <t>Leetcode-1249 Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>21 mins</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Leetcode-546 Remove Boxes</t>
+  </si>
+  <si>
+    <t>Leetcode-1028 Recover a Tree From Preorder Traversal</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Leetcode-1160 Find Words That Can Be Formed by Characters</t>
+  </si>
+  <si>
+    <t>Leetcode-554 Brick Wall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,20 +497,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4E1930-8AA8-4A95-9FCA-632545BBF70A}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +530,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -470,8 +556,14 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -481,11 +573,310 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
       <c r="E3">
         <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43787</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>